--- a/Research/LUSC/LUSC Regression Results.xlsx
+++ b/Research/LUSC/LUSC Regression Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kanika Saini\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A8B6BF-A557-4722-8C38-493703BDA086}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1109E7-3775-4D2C-8198-E9E68B8D9932}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{A28154A7-B7ED-4F5E-9594-5886F86F131B}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="19">
   <si>
     <t>DECISION TREE</t>
   </si>
@@ -93,7 +93,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,13 +116,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -130,12 +123,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -169,7 +156,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -190,29 +184,29 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
@@ -221,36 +215,36 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="40% - Accent2" xfId="2" builtinId="35"/>
-    <cellStyle name="40% - Accent3" xfId="3" builtinId="39"/>
-    <cellStyle name="40% - Accent4" xfId="4" builtinId="43"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="40% - Accent6" xfId="6" builtinId="51"/>
-    <cellStyle name="Accent6" xfId="7" builtinId="49"/>
+    <cellStyle name="40% - Accent2" xfId="1" builtinId="35"/>
+    <cellStyle name="40% - Accent3" xfId="2" builtinId="39"/>
+    <cellStyle name="40% - Accent4" xfId="3" builtinId="43"/>
+    <cellStyle name="40% - Accent5" xfId="4" builtinId="47"/>
+    <cellStyle name="40% - Accent6" xfId="5" builtinId="51"/>
+    <cellStyle name="60% - Accent1" xfId="6" builtinId="32"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -566,266 +560,266 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="16.36328125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="14"/>
-    <col min="4" max="4" width="18.90625" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.7265625" style="14"/>
-    <col min="7" max="7" width="11.08984375" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="14"/>
+    <col min="1" max="2" width="16.36328125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="12"/>
+    <col min="4" max="4" width="18.90625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.7265625" style="12"/>
+    <col min="7" max="7" width="11.08984375" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.54296875" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C1" s="7" t="s">
+    <row r="1" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1">
-        <v>1.4664128097026801</v>
+        <v>1.40324608609219</v>
       </c>
       <c r="D3" s="1">
-        <v>0.88279820292142597</v>
+        <v>0.85380842431872594</v>
       </c>
       <c r="E3" s="1">
-        <v>0.83780978290570796</v>
+        <v>0.81081843201053005</v>
       </c>
       <c r="F3" s="1">
-        <v>0.72391057352483701</v>
+        <v>0.69792301169398696</v>
       </c>
       <c r="G3" s="1">
-        <v>0.72391057352483701</v>
+        <v>0.69792301169398696</v>
       </c>
       <c r="H3" s="1">
-        <v>0.77683256762002895</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+        <v>0.76517613152361896</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="1">
-        <v>4.3399684541436203</v>
+        <v>4.0530016673731701</v>
       </c>
       <c r="D4" s="1">
-        <v>1.2158424132765999</v>
+        <v>1.13862318947424</v>
       </c>
       <c r="E4" s="1">
-        <v>1.1244743966192501</v>
-      </c>
-      <c r="F4" s="8">
-        <v>1</v>
-      </c>
-      <c r="G4" s="8">
-        <v>1</v>
+        <v>1.0418695786501599</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.90672466546932495</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.90672466546932495</v>
       </c>
       <c r="H4" s="1">
-        <v>1.0435124010951899</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="8" t="s">
+        <v>0.97856913088165698</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="1">
-        <v>2.08325909433839</v>
+        <v>2.0132068118733302</v>
       </c>
       <c r="D5" s="1">
-        <v>1.1026524444613499</v>
+        <v>1.06706287981273</v>
       </c>
       <c r="E5" s="1">
-        <v>1.06041237102329</v>
+        <v>1.02072012748361</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0.95222091211510596</v>
       </c>
       <c r="G5" s="1">
-        <v>1</v>
+        <v>0.95222091211510596</v>
       </c>
       <c r="H5" s="1">
-        <v>1.0215245474755801</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="8" t="s">
+        <v>0.98922653163047303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="1">
+        <v>-3.48</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-0.26</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-0.15</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1">
+        <v>-3.4750999999999999</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-0.25719999999999998</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-0.15040000000000001</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-1.1999999999999999E-3</v>
+      </c>
+      <c r="G7" s="1">
+        <v>-1.1999999999999999E-3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2.1399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.47639999999999999</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.34549999999999997</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.40639999999999998</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.32719999999999999</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.32719999999999999</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.39639999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1.1153794508505099</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.77386536703529496</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1.2876252428389401</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.69792301169398696</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.69792301169398696</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.74434074708578601</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2.2806729794603302</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1.0074224484915599</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3.93318816332983</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.90672466546932495</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.90672466546932495</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1.01977319482829</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1.5101897163801401</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1.00370436309282</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1.98322670497596</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.95222091211510596</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.95222091211510596</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1.0098382023018699</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2">
+        <v>-1.52</v>
+      </c>
+      <c r="D14" s="2">
+        <v>-0.11</v>
+      </c>
+      <c r="E14" s="2">
         <v>-3.34</v>
-      </c>
-      <c r="D6" s="1">
-        <v>-0.22</v>
-      </c>
-      <c r="E6" s="1">
-        <v>-0.12</v>
-      </c>
-      <c r="F6" s="8">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>-0.04</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1">
-        <v>-3.34</v>
-      </c>
-      <c r="D7" s="1">
-        <v>-0.21579999999999999</v>
-      </c>
-      <c r="E7" s="1">
-        <v>-0.1245</v>
-      </c>
-      <c r="F7" s="8">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>-4.3499999999999997E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="8">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0.33850000000000002</v>
-      </c>
-      <c r="E8" s="8">
-        <v>0.3992</v>
-      </c>
-      <c r="F8" s="8">
-        <v>0.32690000000000002</v>
-      </c>
-      <c r="G8" s="8">
-        <v>0.32690000000000002</v>
-      </c>
-      <c r="H8" s="8">
-        <v>0.37119999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1.2657452201661199</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.79660848352198799</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1.3143288530798201</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0.72391057352483701</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.72391057352483701</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.84728812860710401</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="2">
-        <v>2.9162997399319002</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1.0828695807620301</v>
-      </c>
-      <c r="E12" s="2">
-        <v>4.0299438900200402</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1.2071962765281901</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1.7077176991329399</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1.0406101963569401</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2.00747201475389</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2">
-        <v>1.09872484113548</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="2">
-        <v>-1.92</v>
-      </c>
-      <c r="D14" s="2">
-        <v>-0.08</v>
-      </c>
-      <c r="E14" s="2">
-        <v>-3.03</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
@@ -834,139 +828,139 @@
         <v>0</v>
       </c>
       <c r="H14" s="2">
-        <v>-0.21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="9" t="s">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="2">
-        <v>-1.9162999999999999</v>
+        <v>-1.5182</v>
       </c>
       <c r="D15" s="2">
-        <v>-8.2900000000000001E-2</v>
+        <v>-0.1123</v>
       </c>
       <c r="E15" s="2">
-        <v>-3.0299</v>
-      </c>
-      <c r="F15" s="9">
-        <v>0</v>
-      </c>
-      <c r="G15" s="9">
-        <v>0</v>
+        <v>-3.3428</v>
+      </c>
+      <c r="F15" s="2">
+        <v>-1.1999999999999999E-3</v>
+      </c>
+      <c r="G15" s="2">
+        <v>-1.1999999999999999E-3</v>
       </c>
       <c r="H15" s="2">
-        <v>-0.2072</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="9" t="s">
+        <v>-0.126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="9">
-        <v>0.40820000000000001</v>
-      </c>
-      <c r="D16" s="9">
-        <v>0.36509999999999998</v>
-      </c>
-      <c r="E16" s="9">
-        <v>0.4153</v>
-      </c>
-      <c r="F16" s="9">
-        <v>0.32690000000000002</v>
-      </c>
-      <c r="G16" s="9">
-        <v>0.32690000000000002</v>
-      </c>
-      <c r="H16" s="9">
-        <v>0.372</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="10" t="s">
+      <c r="C16" s="8">
+        <v>0.39229999999999998</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0.3715</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0.4214</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0.32719999999999999</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0.32719999999999999</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0.40660000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="3">
-        <v>0.73903284988819695</v>
+        <v>0.67283425354249904</v>
       </c>
       <c r="D18" s="3">
-        <v>0.63888438808870296</v>
+        <v>0.60733096621983096</v>
       </c>
       <c r="E18" s="3">
-        <v>0.741064644746805</v>
+        <v>0.72410639462604498</v>
       </c>
       <c r="F18" s="3">
-        <v>0.72391057352483701</v>
+        <v>0.69792301169398696</v>
       </c>
       <c r="G18" s="3">
-        <v>0.72391057352483701</v>
+        <v>0.69792301169398696</v>
       </c>
       <c r="H18" s="3">
-        <v>0.65518455662601605</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="10" t="s">
+        <v>0.64306197793034503</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="3">
-        <v>1.0596840835719099</v>
+        <v>0.91183344841662595</v>
       </c>
       <c r="D19" s="3">
-        <v>0.71696936356121199</v>
+        <v>0.63564892159914599</v>
       </c>
       <c r="E19" s="3">
-        <v>0.86513109934295596</v>
+        <v>0.82518696059711605</v>
       </c>
       <c r="F19" s="3">
-        <v>1</v>
+        <v>0.90672466546932495</v>
       </c>
       <c r="G19" s="3">
-        <v>1</v>
+        <v>0.90672466546932495</v>
       </c>
       <c r="H19" s="3">
-        <v>0.73671062040052404</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="10" t="s">
+        <v>0.77026145123704404</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="3">
-        <v>1.0294095800855501</v>
+        <v>0.95489970594645501</v>
       </c>
       <c r="D20" s="3">
-        <v>0.84674043458501003</v>
+        <v>0.79727593817896303</v>
       </c>
       <c r="E20" s="3">
-        <v>0.93012423866006</v>
+        <v>0.90839801882055804</v>
       </c>
       <c r="F20" s="3">
-        <v>1</v>
+        <v>0.95222091211510596</v>
       </c>
       <c r="G20" s="3">
-        <v>1</v>
+        <v>0.95222091211510596</v>
       </c>
       <c r="H20" s="3">
-        <v>0.85831848424726598</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="10" t="s">
+        <v>0.87764540176374395</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="3">
-        <v>-0.06</v>
+        <v>-0.01</v>
       </c>
       <c r="D21" s="3">
-        <v>0.28000000000000003</v>
+        <v>0.3</v>
       </c>
       <c r="E21" s="3">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -975,280 +969,280 @@
         <v>0</v>
       </c>
       <c r="H21" s="3">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="10" t="s">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="3">
-        <v>-5.9700000000000003E-2</v>
+        <v>-6.7999999999999996E-3</v>
       </c>
       <c r="D22" s="3">
-        <v>0.28299999999999997</v>
+        <v>0.29809999999999998</v>
       </c>
       <c r="E22" s="3">
-        <v>0.13489999999999999</v>
-      </c>
-      <c r="F22" s="10">
-        <v>0</v>
-      </c>
-      <c r="G22" s="10">
-        <v>0</v>
+        <v>8.8900000000000007E-2</v>
+      </c>
+      <c r="F22" s="3">
+        <v>-1.1999999999999999E-3</v>
+      </c>
+      <c r="G22" s="3">
+        <v>-1.1999999999999999E-3</v>
       </c>
       <c r="H22" s="3">
-        <v>0.26329999999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="10" t="s">
+        <v>0.22969999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="10">
-        <v>0.51910000000000001</v>
-      </c>
-      <c r="D23" s="10">
-        <v>0.51370000000000005</v>
-      </c>
-      <c r="E23" s="10">
-        <v>0.49109999999999998</v>
-      </c>
-      <c r="F23" s="10">
-        <v>0.32690000000000002</v>
-      </c>
-      <c r="G23" s="10">
-        <v>0.32690000000000002</v>
-      </c>
-      <c r="H23" s="10">
-        <v>0.50329999999999997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="11" t="s">
+      <c r="C23" s="9">
+        <v>0.52629999999999999</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0.49280000000000002</v>
+      </c>
+      <c r="F23" s="9">
+        <v>0.32719999999999999</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0.32719999999999999</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0.50260000000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="4">
-        <v>1.2737758059145801</v>
+        <v>1.17450106314964</v>
       </c>
       <c r="D25" s="4">
-        <v>0.73555159815678495</v>
+        <v>0.71058888110909901</v>
       </c>
       <c r="E25" s="4">
-        <v>0.78948566380688501</v>
+        <v>0.69792301169398696</v>
       </c>
       <c r="F25" s="4">
-        <v>0.72391057352483701</v>
+        <v>0.76267335927284796</v>
       </c>
       <c r="G25" s="4">
         <v>0.72391057352483701</v>
       </c>
       <c r="H25" s="4">
-        <v>0.86967607121322899</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="11" t="s">
+        <v>0.74446623722719996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="4">
-        <v>3.0675521110208499</v>
+        <v>2.5230352108426599</v>
       </c>
       <c r="D26" s="4">
-        <v>0.94322856864103199</v>
+        <v>0.85761083521259596</v>
       </c>
       <c r="E26" s="4">
-        <v>1.0057971490953399</v>
+        <v>0.90672466546932495</v>
       </c>
       <c r="F26" s="4">
-        <v>1</v>
+        <v>0.92661564367628901</v>
       </c>
       <c r="G26" s="4">
         <v>1</v>
       </c>
       <c r="H26" s="4">
-        <v>1.2302940776723901</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="11" t="s">
+        <v>0.88425992672925202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="4">
-        <v>1.7514428654742999</v>
+        <v>1.58840650050378</v>
       </c>
       <c r="D27" s="4">
-        <v>0.97119955140075698</v>
+        <v>0.92607280232851896</v>
       </c>
       <c r="E27" s="4">
-        <v>1.0028943858130499</v>
+        <v>0.95222091211510596</v>
       </c>
       <c r="F27" s="4">
-        <v>1</v>
+        <v>0.96260876978982901</v>
       </c>
       <c r="G27" s="4">
         <v>1</v>
       </c>
       <c r="H27" s="4">
-        <v>1.1091862231710199</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="11" t="s">
+        <v>0.94035095933872104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="4">
-        <v>-2.0699999999999998</v>
+        <v>-1.79</v>
       </c>
       <c r="D28" s="4">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E28" s="4">
         <v>-0.01</v>
       </c>
       <c r="F28" s="4">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="G28" s="4">
         <v>0</v>
       </c>
       <c r="H28" s="4">
-        <v>-0.23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="11" t="s">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C29" s="4">
-        <v>-2.0676000000000001</v>
+        <v>-1.7858000000000001</v>
       </c>
       <c r="D29" s="4">
-        <v>5.6800000000000003E-2</v>
+        <v>5.3100000000000001E-2</v>
       </c>
       <c r="E29" s="4">
-        <v>-5.7999999999999996E-3</v>
-      </c>
-      <c r="F29" s="11">
+        <v>-1.1999999999999999E-3</v>
+      </c>
+      <c r="F29" s="4">
+        <v>-2.3099999999999999E-2</v>
+      </c>
+      <c r="G29" s="10">
         <v>0</v>
       </c>
-      <c r="G29" s="11">
-        <v>0</v>
-      </c>
       <c r="H29" s="4">
-        <v>-0.2303</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="11" t="s">
+        <v>2.3599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="11">
-        <v>0.40839999999999999</v>
-      </c>
-      <c r="D30" s="11">
-        <v>0.43819999999999998</v>
-      </c>
-      <c r="E30" s="11">
-        <v>0.40820000000000001</v>
-      </c>
-      <c r="F30" s="11">
-        <v>0.32690000000000002</v>
-      </c>
-      <c r="G30" s="11">
-        <v>0.32690000000000002</v>
-      </c>
-      <c r="H30" s="11">
-        <v>0.3967</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="12" t="s">
+      <c r="C30" s="10">
+        <v>0.42009999999999997</v>
+      </c>
+      <c r="D30" s="10">
+        <v>0.44069999999999998</v>
+      </c>
+      <c r="E30" s="10">
+        <v>0.32719999999999999</v>
+      </c>
+      <c r="F30" s="10">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="G30" s="10">
+        <v>0.3236</v>
+      </c>
+      <c r="H30" s="10">
+        <v>0.41839999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="5">
-        <v>0.84676201508622895</v>
+        <v>0.756581169021174</v>
       </c>
       <c r="D32" s="5">
-        <v>0.66284100029919302</v>
+        <v>0.63826912492207299</v>
       </c>
       <c r="E32" s="5">
-        <v>1.1358845486187801</v>
+        <v>1.1262633591970601</v>
       </c>
       <c r="F32" s="5">
-        <v>0.72391057352483701</v>
+        <v>0.69792301169398696</v>
       </c>
       <c r="G32" s="5">
         <v>0.72391057352483701</v>
       </c>
       <c r="H32" s="5">
-        <v>0.75967335367678801</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="12" t="s">
+        <v>0.66077355713951502</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="5">
-        <v>1.4707430844365501</v>
+        <v>1.11759966849306</v>
       </c>
       <c r="D33" s="5">
-        <v>0.75291532914628101</v>
+        <v>0.67713697474370305</v>
       </c>
       <c r="E33" s="5">
-        <v>2.1326019559485001</v>
+        <v>2.0942443703607601</v>
       </c>
       <c r="F33" s="5">
-        <v>1</v>
+        <v>0.90672466546932495</v>
       </c>
       <c r="G33" s="5">
         <v>1</v>
       </c>
       <c r="H33" s="5">
-        <v>1.0418252537627399</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="12" t="s">
+        <v>0.80182331401912998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C34" s="5">
-        <v>1.2127419694380801</v>
+        <v>1.0571658661218</v>
       </c>
       <c r="D34" s="5">
-        <v>0.86770693736208004</v>
+        <v>0.822883329970721</v>
       </c>
       <c r="E34" s="5">
-        <v>1.46034309528566</v>
+        <v>1.4471504311441701</v>
       </c>
       <c r="F34" s="5">
-        <v>1</v>
+        <v>0.95222091211510596</v>
       </c>
       <c r="G34" s="5">
         <v>1</v>
       </c>
       <c r="H34" s="5">
-        <v>1.0206984146958999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="12" t="s">
+        <v>0.89544587442185997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C35" s="5">
-        <v>-0.47</v>
+        <v>-0.23</v>
       </c>
       <c r="D35" s="5">
         <v>0.25</v>
       </c>
       <c r="E35" s="5">
-        <v>-1.1299999999999999</v>
+        <v>-1.31</v>
       </c>
       <c r="F35" s="5">
         <v>0</v>
@@ -1257,53 +1251,53 @@
         <v>0</v>
       </c>
       <c r="H35" s="5">
-        <v>-0.04</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="12" t="s">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C36" s="5">
-        <v>-0.47070000000000001</v>
+        <v>-0.23400000000000001</v>
       </c>
       <c r="D36" s="5">
-        <v>0.24709999999999999</v>
+        <v>0.25230000000000002</v>
       </c>
       <c r="E36" s="5">
-        <v>-1.1326000000000001</v>
-      </c>
-      <c r="F36" s="12">
+        <v>-1.3124</v>
+      </c>
+      <c r="F36" s="5">
+        <v>-1.1999999999999999E-3</v>
+      </c>
+      <c r="G36" s="11">
         <v>0</v>
       </c>
-      <c r="G36" s="12">
-        <v>0</v>
-      </c>
       <c r="H36" s="5">
-        <v>-4.1799999999999997E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="12" t="s">
+        <v>0.1147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="12">
-        <v>0.54720000000000002</v>
-      </c>
-      <c r="D37" s="12">
-        <v>0.48720000000000002</v>
-      </c>
-      <c r="E37" s="12">
-        <v>0.48070000000000002</v>
-      </c>
-      <c r="F37" s="12">
+      <c r="C37" s="11">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="D37" s="11">
+        <v>0.49359999999999998</v>
+      </c>
+      <c r="E37" s="11">
+        <v>0.47960000000000003</v>
+      </c>
+      <c r="F37" s="11">
+        <v>0.32719999999999999</v>
+      </c>
+      <c r="G37" s="11">
         <v>0.32690000000000002</v>
       </c>
-      <c r="G37" s="12">
-        <v>0.32690000000000002</v>
-      </c>
-      <c r="H37" s="12">
-        <v>0.44869999999999999</v>
+      <c r="H37" s="11">
+        <v>0.49709999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -1313,115 +1307,115 @@
       <c r="B39" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="6">
-        <v>1.4779648269864301</v>
-      </c>
-      <c r="D39" s="6">
-        <v>0.88516408846962602</v>
-      </c>
-      <c r="E39" s="6">
-        <v>0.84368275440057094</v>
-      </c>
-      <c r="F39" s="6">
+      <c r="C39" s="14">
+        <v>1.46305553022567</v>
+      </c>
+      <c r="D39" s="14">
+        <v>0.86241535417960402</v>
+      </c>
+      <c r="E39" s="14">
+        <v>0.81606048432202005</v>
+      </c>
+      <c r="F39" s="14">
+        <v>0.69792301169398696</v>
+      </c>
+      <c r="G39" s="14">
         <v>0.72391057352483701</v>
       </c>
-      <c r="G39" s="6">
-        <v>0.72391057352483701</v>
-      </c>
-      <c r="H39" s="6">
-        <v>0.98227011064202296</v>
+      <c r="H39" s="14">
+        <v>0.89383618918549801</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B40" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="6">
-        <v>4.3640514549409</v>
-      </c>
-      <c r="D40" s="6">
-        <v>1.22994695179572</v>
-      </c>
-      <c r="E40" s="6">
-        <v>1.1188729377648901</v>
-      </c>
-      <c r="F40" s="6">
-        <v>1</v>
+      <c r="C40" s="14">
+        <v>4.3386424590697299</v>
+      </c>
+      <c r="D40" s="14">
+        <v>1.1818179006209499</v>
+      </c>
+      <c r="E40" s="14">
+        <v>1.0359079221119101</v>
+      </c>
+      <c r="F40" s="14">
+        <v>0.90672466546932495</v>
       </c>
       <c r="G40" s="13">
         <v>1</v>
       </c>
-      <c r="H40" s="6">
-        <v>1.49216260591275</v>
+      <c r="H40" s="14">
+        <v>1.18279191777263</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B41" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="6">
-        <v>2.0890312240224902</v>
-      </c>
-      <c r="D41" s="6">
-        <v>1.1090297344055799</v>
-      </c>
-      <c r="E41" s="6">
-        <v>1.05776790354259</v>
-      </c>
-      <c r="F41" s="6">
-        <v>1</v>
+      <c r="C41" s="14">
+        <v>2.08294081986736</v>
+      </c>
+      <c r="D41" s="14">
+        <v>1.0871144836772899</v>
+      </c>
+      <c r="E41" s="14">
+        <v>1.01779561902766</v>
+      </c>
+      <c r="F41" s="14">
+        <v>0.95222091211510596</v>
       </c>
       <c r="G41" s="13">
         <v>1</v>
       </c>
-      <c r="H41" s="6">
-        <v>1.22154107827479</v>
+      <c r="H41" s="14">
+        <v>1.08756237419866</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B42" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="6">
-        <v>-3.36</v>
-      </c>
-      <c r="D42" s="6">
-        <v>-0.23</v>
-      </c>
-      <c r="E42" s="6">
-        <v>-0.12</v>
-      </c>
-      <c r="F42" s="6">
+      <c r="C42" s="14">
+        <v>-3.79</v>
+      </c>
+      <c r="D42" s="14">
+        <v>-0.18</v>
+      </c>
+      <c r="E42" s="14">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="F42" s="14">
         <v>0</v>
       </c>
       <c r="G42" s="13">
         <v>0</v>
       </c>
-      <c r="H42" s="6">
-        <v>-0.49</v>
+      <c r="H42" s="14">
+        <v>-0.31</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B43" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="6">
-        <v>-3.3641000000000001</v>
-      </c>
-      <c r="D43" s="6">
-        <v>-0.22989999999999999</v>
-      </c>
-      <c r="E43" s="6">
-        <v>-0.11890000000000001</v>
-      </c>
-      <c r="F43" s="13">
-        <v>0</v>
+      <c r="C43" s="14">
+        <v>-3.7905000000000002</v>
+      </c>
+      <c r="D43" s="14">
+        <v>-0.18179999999999999</v>
+      </c>
+      <c r="E43" s="14">
+        <v>-0.14380000000000001</v>
+      </c>
+      <c r="F43" s="14">
+        <v>-1.1999999999999999E-3</v>
       </c>
       <c r="G43" s="13">
         <v>0</v>
       </c>
-      <c r="H43" s="6">
-        <v>-0.49220000000000003</v>
+      <c r="H43" s="14">
+        <v>-0.30599999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -1429,22 +1423,22 @@
         <v>17</v>
       </c>
       <c r="C44" s="13">
-        <v>0.40129999999999999</v>
+        <v>0.37880000000000003</v>
       </c>
       <c r="D44" s="13">
-        <v>0.34910000000000002</v>
+        <v>0.3417</v>
       </c>
       <c r="E44" s="13">
-        <v>0.38950000000000001</v>
+        <v>0.4012</v>
       </c>
       <c r="F44" s="13">
-        <v>0.32690000000000002</v>
+        <v>0.32719999999999999</v>
       </c>
       <c r="G44" s="13">
-        <v>0.32500000000000001</v>
+        <v>0.3236</v>
       </c>
       <c r="H44" s="13">
-        <v>0.32719999999999999</v>
+        <v>0.3498</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -1452,22 +1446,22 @@
         <v>6</v>
       </c>
       <c r="C47" s="16">
-        <v>7.43661623533102E-2</v>
+        <v>9.65452766738394E-2</v>
       </c>
       <c r="D47" s="16">
-        <v>2.1662759656795101E-2</v>
+        <v>4.4155611015681398E-2</v>
       </c>
       <c r="E47" s="16">
-        <v>0.73231107612014301</v>
+        <v>0.70461234969038</v>
       </c>
       <c r="F47" s="16">
-        <v>0.72391057352483701</v>
+        <v>0.69792301169398696</v>
       </c>
       <c r="G47" s="16">
-        <v>0.434344432888287</v>
+        <v>0.408976424955312</v>
       </c>
       <c r="H47" s="16">
-        <v>6.7313731538314603E-2</v>
+        <v>6.54126240567907E-2</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -1475,22 +1469,22 @@
         <v>8</v>
       </c>
       <c r="C48" s="16">
-        <v>4.0899331446567398E-2</v>
+        <v>5.1044624569083402E-2</v>
       </c>
       <c r="D48" s="16">
-        <v>3.6853545382931701E-3</v>
+        <v>7.1822404550962397E-3</v>
       </c>
       <c r="E48" s="16">
-        <v>0.84656739228512101</v>
-      </c>
-      <c r="F48" s="15">
-        <v>1</v>
+        <v>0.77402503512921905</v>
+      </c>
+      <c r="F48" s="16">
+        <v>0.90672466546932495</v>
       </c>
       <c r="G48" s="16">
-        <v>0.35999683183672698</v>
+        <v>0.30538638892407999</v>
       </c>
       <c r="H48" s="16">
-        <v>3.1462010481160298E-2</v>
+        <v>2.72722967195148E-2</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -1501,22 +1495,22 @@
         <v>9</v>
       </c>
       <c r="C49" s="16">
-        <v>0.20223583126282901</v>
+        <v>0.225930574666386</v>
       </c>
       <c r="D49" s="16">
-        <v>6.0707120985047297E-2</v>
+        <v>8.4748100008768507E-2</v>
       </c>
       <c r="E49" s="16">
-        <v>0.92009096957046599</v>
-      </c>
-      <c r="F49" s="15">
-        <v>1</v>
+        <v>0.87978692598220598</v>
+      </c>
+      <c r="F49" s="16">
+        <v>0.95222091211510596</v>
       </c>
       <c r="G49" s="16">
-        <v>0.59999735985812996</v>
+        <v>0.55261776023222398</v>
       </c>
       <c r="H49" s="16">
-        <v>0.17737533786059501</v>
+        <v>0.16514326119922301</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -1524,10 +1518,10 @@
         <v>10</v>
       </c>
       <c r="C50" s="16">
-        <v>0.96</v>
-      </c>
-      <c r="D50" s="15">
-        <v>1</v>
+        <v>0.94</v>
+      </c>
+      <c r="D50" s="16">
+        <v>0.99</v>
       </c>
       <c r="E50" s="16">
         <v>0.15</v>
@@ -1536,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="16">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="H50" s="16">
         <v>0.97</v>
@@ -1547,22 +1541,22 @@
         <v>16</v>
       </c>
       <c r="C51" s="16">
-        <v>0.95909999999999995</v>
+        <v>0.94359999999999999</v>
       </c>
       <c r="D51" s="16">
-        <v>0.99629999999999996</v>
+        <v>0.99209999999999998</v>
       </c>
       <c r="E51" s="16">
-        <v>0.15340000000000001</v>
-      </c>
-      <c r="F51" s="15">
-        <v>0</v>
+        <v>0.1454</v>
+      </c>
+      <c r="F51" s="16">
+        <v>-1.1999999999999999E-3</v>
       </c>
       <c r="G51" s="16">
-        <v>0.64</v>
+        <v>0.66279999999999994</v>
       </c>
       <c r="H51" s="16">
-        <v>0.96850000000000003</v>
+        <v>0.96989999999999998</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -1570,22 +1564,22 @@
         <v>17</v>
       </c>
       <c r="C52" s="15">
-        <v>0.92120000000000002</v>
+        <v>0.89870000000000005</v>
       </c>
       <c r="D52" s="15">
-        <v>0.95620000000000005</v>
+        <v>0.91110000000000002</v>
       </c>
       <c r="E52" s="15">
-        <v>0.42430000000000001</v>
+        <v>0.4279</v>
       </c>
       <c r="F52" s="15">
-        <v>0.32690000000000002</v>
+        <v>0.32719999999999999</v>
       </c>
       <c r="G52" s="15">
-        <v>0.62329999999999997</v>
+        <v>0.61839999999999995</v>
       </c>
       <c r="H52" s="15">
-        <v>0.93859999999999999</v>
+        <v>0.91090000000000004</v>
       </c>
     </row>
   </sheetData>
